--- a/results/mp/logistic/corona/confidence/168/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,6 +55,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -70,58 +73,67 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
@@ -130,13 +142,10 @@
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -613,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4285714285714285</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3779069767441861</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C5">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1946308724832215</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1361111111111111</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,21 +814,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.005634350106858364</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>0.38</v>
+      </c>
+      <c r="F8">
+        <v>0.62</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5118</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8198433420365535</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,21 +864,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,21 +890,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,21 +916,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,21 +942,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,21 +968,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,21 +994,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7575757575757576</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,21 +1020,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,21 +1046,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,21 +1072,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7435897435897436</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,21 +1098,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,15 +1124,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
         <v>34</v>
@@ -1117,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6441176470588236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,21 +1202,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>0.66</v>
+      </c>
+      <c r="L22">
         <v>33</v>
       </c>
-      <c r="K22">
-        <v>0.64</v>
-      </c>
-      <c r="L22">
-        <v>32</v>
-      </c>
       <c r="M22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.606694560669456</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L23">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="M23">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5389830508474577</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L27">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,33 +1384,85 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>0.4044943820224719</v>
+      </c>
+      <c r="L30">
+        <v>36</v>
+      </c>
+      <c r="M30">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>46</v>
+      <c r="K31">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
